--- a/src/predicciones/holt_winters/producto_58.xlsx
+++ b/src/predicciones/holt_winters/producto_58.xlsx
@@ -14,18 +14,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>predicciones</t>
   </si>
   <si>
     <t>real</t>
   </si>
+  <si>
+    <t>Fecha</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -78,9 +84,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -384,6 +393,9 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:3">
+      <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -392,1837 +404,1837 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="1">
-        <v>0</v>
+      <c r="A2" s="2">
+        <v>44931</v>
       </c>
       <c r="B2">
-        <v>1.09652562786689</v>
+        <v>1.091531547068913</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="1">
-        <v>1</v>
+      <c r="A3" s="2">
+        <v>44940</v>
       </c>
       <c r="B3">
-        <v>1.237605346591991</v>
+        <v>1.403972618490708</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="1">
-        <v>2</v>
+      <c r="A4" s="2">
+        <v>44941</v>
       </c>
       <c r="B4">
-        <v>0.8949849030727433</v>
+        <v>1.18691590911193</v>
       </c>
       <c r="C4">
         <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="1">
-        <v>3</v>
+      <c r="A5" s="2">
+        <v>44944</v>
       </c>
       <c r="B5">
-        <v>1.044363798687075</v>
+        <v>1.072341799488571</v>
       </c>
       <c r="C5">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="1">
-        <v>4</v>
+      <c r="A6" s="2">
+        <v>44945</v>
       </c>
       <c r="B6">
-        <v>1.243455424146895</v>
+        <v>1.222938404495535</v>
       </c>
       <c r="C6">
         <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="1">
-        <v>5</v>
+      <c r="A7" s="2">
+        <v>44946</v>
       </c>
       <c r="B7">
-        <v>1.041168855614619</v>
+        <v>1.00565495422821</v>
       </c>
       <c r="C7">
         <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="1">
-        <v>6</v>
+      <c r="A8" s="2">
+        <v>44948</v>
       </c>
       <c r="B8">
-        <v>0.9971436542112194</v>
+        <v>0.9726703649117366</v>
       </c>
       <c r="C8">
         <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="1">
-        <v>7</v>
+      <c r="A9" s="2">
+        <v>44951</v>
       </c>
       <c r="B9">
-        <v>1.095645081120315</v>
+        <v>1.084718039586906</v>
       </c>
       <c r="C9">
         <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="1">
-        <v>8</v>
+      <c r="A10" s="2">
+        <v>44959</v>
       </c>
       <c r="B10">
-        <v>1.236724799845417</v>
+        <v>1.397159111008701</v>
       </c>
       <c r="C10">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="1">
-        <v>9</v>
+      <c r="A11" s="2">
+        <v>44960</v>
       </c>
       <c r="B11">
-        <v>0.894104356326169</v>
+        <v>1.180102401629923</v>
       </c>
       <c r="C11">
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="1">
-        <v>10</v>
+      <c r="A12" s="2">
+        <v>44961</v>
       </c>
       <c r="B12">
-        <v>1.043483251940501</v>
+        <v>1.065528292006564</v>
       </c>
       <c r="C12">
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="1">
-        <v>11</v>
+      <c r="A13" s="2">
+        <v>44962</v>
       </c>
       <c r="B13">
-        <v>1.242574877400321</v>
+        <v>1.216124897013528</v>
       </c>
       <c r="C13">
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="1">
-        <v>12</v>
+      <c r="A14" s="2">
+        <v>44963</v>
       </c>
       <c r="B14">
-        <v>1.040288308868044</v>
+        <v>0.9988414467462039</v>
       </c>
       <c r="C14">
         <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15" s="1">
-        <v>13</v>
+      <c r="A15" s="2">
+        <v>44964</v>
       </c>
       <c r="B15">
-        <v>0.9962631074646454</v>
+        <v>0.96585685742973</v>
       </c>
       <c r="C15">
         <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:3">
-      <c r="A16" s="1">
-        <v>14</v>
+      <c r="A16" s="2">
+        <v>44965</v>
       </c>
       <c r="B16">
-        <v>1.094764534373741</v>
+        <v>1.0779045321049</v>
       </c>
       <c r="C16">
         <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" s="1">
-        <v>15</v>
+      <c r="A17" s="2">
+        <v>44966</v>
       </c>
       <c r="B17">
-        <v>1.235844253098842</v>
+        <v>1.390345603526695</v>
       </c>
       <c r="C17">
         <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" s="1">
-        <v>16</v>
+      <c r="A18" s="2">
+        <v>44967</v>
       </c>
       <c r="B18">
-        <v>0.893223809579595</v>
+        <v>1.173288894147917</v>
       </c>
       <c r="C18">
         <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="1">
-        <v>17</v>
+      <c r="A19" s="2">
+        <v>44969</v>
       </c>
       <c r="B19">
-        <v>1.042602705193926</v>
+        <v>1.058714784524558</v>
       </c>
       <c r="C19">
         <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="1">
-        <v>18</v>
+      <c r="A20" s="2">
+        <v>44971</v>
       </c>
       <c r="B20">
-        <v>1.241694330653747</v>
+        <v>1.209311389531522</v>
       </c>
       <c r="C20">
         <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" s="1">
-        <v>19</v>
+      <c r="A21" s="2">
+        <v>44972</v>
       </c>
       <c r="B21">
-        <v>1.03940776212147</v>
+        <v>0.9920279392641973</v>
       </c>
       <c r="C21">
         <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:3">
-      <c r="A22" s="1">
-        <v>20</v>
+      <c r="A22" s="2">
+        <v>44974</v>
       </c>
       <c r="B22">
-        <v>0.9953825607180712</v>
+        <v>0.9590433499477237</v>
       </c>
       <c r="C22">
         <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:3">
-      <c r="A23" s="1">
-        <v>21</v>
+      <c r="A23" s="2">
+        <v>44976</v>
       </c>
       <c r="B23">
-        <v>1.093883987627167</v>
+        <v>1.071091024622894</v>
       </c>
       <c r="C23">
         <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:3">
-      <c r="A24" s="1">
-        <v>22</v>
+      <c r="A24" s="2">
+        <v>44977</v>
       </c>
       <c r="B24">
-        <v>1.234963706352268</v>
+        <v>1.383532096044689</v>
       </c>
       <c r="C24">
         <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:3">
-      <c r="A25" s="1">
-        <v>23</v>
+      <c r="A25" s="2">
+        <v>44979</v>
       </c>
       <c r="B25">
-        <v>0.8923432628330208</v>
+        <v>1.16647538666591</v>
       </c>
       <c r="C25">
         <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:3">
-      <c r="A26" s="1">
-        <v>24</v>
+      <c r="A26" s="2">
+        <v>44982</v>
       </c>
       <c r="B26">
-        <v>1.041722158447352</v>
+        <v>1.051901277042551</v>
       </c>
       <c r="C26">
         <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:3">
-      <c r="A27" s="1">
-        <v>25</v>
+      <c r="A27" s="2">
+        <v>44984</v>
       </c>
       <c r="B27">
-        <v>1.240813783907172</v>
+        <v>1.202497882049515</v>
       </c>
       <c r="C27">
         <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:3">
-      <c r="A28" s="1">
-        <v>26</v>
+      <c r="A28" s="2">
+        <v>44985</v>
       </c>
       <c r="B28">
-        <v>1.038527215374896</v>
+        <v>0.9852144317821909</v>
       </c>
       <c r="C28">
         <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:3">
-      <c r="A29" s="1">
-        <v>27</v>
+      <c r="A29" s="2">
+        <v>44987</v>
       </c>
       <c r="B29">
-        <v>0.9945020139714972</v>
+        <v>0.9522298424657171</v>
       </c>
       <c r="C29">
         <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:3">
-      <c r="A30" s="1">
-        <v>28</v>
+      <c r="A30" s="2">
+        <v>44988</v>
       </c>
       <c r="B30">
-        <v>1.093003440880593</v>
+        <v>1.064277517140887</v>
       </c>
       <c r="C30">
         <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:3">
-      <c r="A31" s="1">
-        <v>29</v>
+      <c r="A31" s="2">
+        <v>44989</v>
       </c>
       <c r="B31">
-        <v>1.234083159605694</v>
+        <v>1.376718588562682</v>
       </c>
       <c r="C31">
         <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:3">
-      <c r="A32" s="1">
-        <v>30</v>
+      <c r="A32" s="2">
+        <v>44992</v>
       </c>
       <c r="B32">
-        <v>0.8914627160864466</v>
+        <v>1.159661879183904</v>
       </c>
       <c r="C32">
         <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:3">
-      <c r="A33" s="1">
-        <v>31</v>
+      <c r="A33" s="2">
+        <v>44994</v>
       </c>
       <c r="B33">
-        <v>1.040841611700778</v>
+        <v>1.045087769560545</v>
       </c>
       <c r="C33">
         <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:3">
-      <c r="A34" s="1">
-        <v>32</v>
+      <c r="A34" s="2">
+        <v>44998</v>
       </c>
       <c r="B34">
-        <v>1.239933237160598</v>
+        <v>1.195684374567509</v>
       </c>
       <c r="C34">
         <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:3">
-      <c r="A35" s="1">
-        <v>33</v>
+      <c r="A35" s="2">
+        <v>44999</v>
       </c>
       <c r="B35">
-        <v>1.037646668628322</v>
+        <v>0.9784009243001845</v>
       </c>
       <c r="C35">
         <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:3">
-      <c r="A36" s="1">
-        <v>34</v>
+      <c r="A36" s="2">
+        <v>45001</v>
       </c>
       <c r="B36">
-        <v>0.9936214672249229</v>
+        <v>0.9454163349837107</v>
       </c>
       <c r="C36">
         <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:3">
-      <c r="A37" s="1">
-        <v>35</v>
+      <c r="A37" s="2">
+        <v>45002</v>
       </c>
       <c r="B37">
-        <v>1.092122894134019</v>
+        <v>1.057464009658881</v>
       </c>
       <c r="C37">
         <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:3">
-      <c r="A38" s="1">
-        <v>36</v>
+      <c r="A38" s="2">
+        <v>45009</v>
       </c>
       <c r="B38">
-        <v>1.23320261285912</v>
+        <v>1.369905081080676</v>
       </c>
       <c r="C38">
         <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:3">
-      <c r="A39" s="1">
-        <v>37</v>
+      <c r="A39" s="2">
+        <v>45011</v>
       </c>
       <c r="B39">
-        <v>0.8905821693398726</v>
+        <v>1.152848371701897</v>
       </c>
       <c r="C39">
         <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:3">
-      <c r="A40" s="1">
-        <v>38</v>
+      <c r="A40" s="2">
+        <v>45014</v>
       </c>
       <c r="B40">
-        <v>1.039961064954204</v>
+        <v>1.038274262078539</v>
       </c>
       <c r="C40">
         <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:3">
-      <c r="A41" s="1">
-        <v>39</v>
+      <c r="A41" s="2">
+        <v>45017</v>
       </c>
       <c r="B41">
-        <v>1.239052690414024</v>
+        <v>1.188870867085502</v>
       </c>
       <c r="C41">
         <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:3">
-      <c r="A42" s="1">
-        <v>40</v>
+      <c r="A42" s="2">
+        <v>45027</v>
       </c>
       <c r="B42">
-        <v>1.036766121881748</v>
+        <v>0.971587416818178</v>
       </c>
       <c r="C42">
         <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:3">
-      <c r="A43" s="1">
-        <v>41</v>
+      <c r="A43" s="2">
+        <v>45032</v>
       </c>
       <c r="B43">
-        <v>0.9927409204783487</v>
+        <v>0.9386028275017043</v>
       </c>
       <c r="C43">
         <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:3">
-      <c r="A44" s="1">
-        <v>42</v>
+      <c r="A44" s="2">
+        <v>45034</v>
       </c>
       <c r="B44">
-        <v>1.091242347387445</v>
+        <v>1.050650502176874</v>
       </c>
       <c r="C44">
         <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:3">
-      <c r="A45" s="1">
-        <v>43</v>
+      <c r="A45" s="2">
+        <v>45036</v>
       </c>
       <c r="B45">
-        <v>1.232322066112546</v>
+        <v>1.363091573598669</v>
       </c>
       <c r="C45">
         <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:3">
-      <c r="A46" s="1">
-        <v>44</v>
+      <c r="A46" s="2">
+        <v>45040</v>
       </c>
       <c r="B46">
-        <v>0.8897016225932983</v>
+        <v>1.146034864219891</v>
       </c>
       <c r="C46">
         <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:3">
-      <c r="A47" s="1">
-        <v>45</v>
+      <c r="A47" s="2">
+        <v>45041</v>
       </c>
       <c r="B47">
-        <v>1.03908051820763</v>
+        <v>1.031460754596532</v>
       </c>
       <c r="C47">
         <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:3">
-      <c r="A48" s="1">
-        <v>46</v>
+      <c r="A48" s="2">
+        <v>45044</v>
       </c>
       <c r="B48">
-        <v>1.23817214366745</v>
+        <v>1.182057359603496</v>
       </c>
       <c r="C48">
         <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:3">
-      <c r="A49" s="1">
-        <v>47</v>
+      <c r="A49" s="2">
+        <v>45045</v>
       </c>
       <c r="B49">
-        <v>1.035885575135174</v>
+        <v>0.9647739093361716</v>
       </c>
       <c r="C49">
         <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:3">
-      <c r="A50" s="1">
-        <v>48</v>
+      <c r="A50" s="2">
+        <v>45046</v>
       </c>
       <c r="B50">
-        <v>0.9918603737317747</v>
+        <v>0.9317893200196977</v>
       </c>
       <c r="C50">
         <v>2</v>
       </c>
     </row>
     <row r="51" spans="1:3">
-      <c r="A51" s="1">
-        <v>49</v>
+      <c r="A51" s="2">
+        <v>45050</v>
       </c>
       <c r="B51">
-        <v>1.09036180064087</v>
+        <v>1.043836994694868</v>
       </c>
       <c r="C51">
         <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:3">
-      <c r="A52" s="1">
-        <v>50</v>
+      <c r="A52" s="2">
+        <v>45051</v>
       </c>
       <c r="B52">
-        <v>1.231441519365972</v>
+        <v>1.356278066116663</v>
       </c>
       <c r="C52">
         <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:3">
-      <c r="A53" s="1">
-        <v>51</v>
+      <c r="A53" s="2">
+        <v>45057</v>
       </c>
       <c r="B53">
-        <v>0.8888210758467241</v>
+        <v>1.139221356737884</v>
       </c>
       <c r="C53">
         <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:3">
-      <c r="A54" s="1">
-        <v>52</v>
+      <c r="A54" s="2">
+        <v>45058</v>
       </c>
       <c r="B54">
-        <v>1.038199971461056</v>
+        <v>1.024647247114526</v>
       </c>
       <c r="C54">
         <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:3">
-      <c r="A55" s="1">
-        <v>53</v>
+      <c r="A55" s="2">
+        <v>45059</v>
       </c>
       <c r="B55">
-        <v>1.237291596920876</v>
+        <v>1.175243852121489</v>
       </c>
       <c r="C55">
         <v>2</v>
       </c>
     </row>
     <row r="56" spans="1:3">
-      <c r="A56" s="1">
-        <v>54</v>
+      <c r="A56" s="2">
+        <v>45060</v>
       </c>
       <c r="B56">
-        <v>1.035005028388599</v>
+        <v>0.9579604018541652</v>
       </c>
       <c r="C56">
         <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:3">
-      <c r="A57" s="1">
-        <v>55</v>
+      <c r="A57" s="2">
+        <v>45061</v>
       </c>
       <c r="B57">
-        <v>0.9909798269852005</v>
+        <v>0.9249758125376913</v>
       </c>
       <c r="C57">
         <v>2</v>
       </c>
     </row>
     <row r="58" spans="1:3">
-      <c r="A58" s="1">
-        <v>56</v>
+      <c r="A58" s="2">
+        <v>45063</v>
       </c>
       <c r="B58">
-        <v>1.089481253894296</v>
+        <v>1.037023487212861</v>
       </c>
       <c r="C58">
         <v>2</v>
       </c>
     </row>
     <row r="59" spans="1:3">
-      <c r="A59" s="1">
-        <v>57</v>
+      <c r="A59" s="2">
+        <v>45064</v>
       </c>
       <c r="B59">
-        <v>1.230560972619398</v>
+        <v>1.349464558634656</v>
       </c>
       <c r="C59">
         <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:3">
-      <c r="A60" s="1">
-        <v>58</v>
+      <c r="A60" s="2">
+        <v>45074</v>
       </c>
       <c r="B60">
-        <v>0.8879405291001501</v>
+        <v>1.132407849255878</v>
       </c>
       <c r="C60">
         <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:3">
-      <c r="A61" s="1">
-        <v>59</v>
+      <c r="A61" s="2">
+        <v>45075</v>
       </c>
       <c r="B61">
-        <v>1.037319424714482</v>
+        <v>1.017833739632519</v>
       </c>
       <c r="C61">
         <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:3">
-      <c r="A62" s="1">
-        <v>60</v>
+      <c r="A62" s="2">
+        <v>45076</v>
       </c>
       <c r="B62">
-        <v>1.236411050174302</v>
+        <v>1.168430344639483</v>
       </c>
       <c r="C62">
         <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:3">
-      <c r="A63" s="1">
-        <v>61</v>
+      <c r="A63" s="2">
+        <v>45078</v>
       </c>
       <c r="B63">
-        <v>1.034124481642025</v>
+        <v>0.9511468943721586</v>
       </c>
       <c r="C63">
         <v>2</v>
       </c>
     </row>
     <row r="64" spans="1:3">
-      <c r="A64" s="1">
-        <v>62</v>
+      <c r="A64" s="2">
+        <v>45079</v>
       </c>
       <c r="B64">
-        <v>0.9900992802386263</v>
+        <v>0.918162305055685</v>
       </c>
       <c r="C64">
         <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:3">
-      <c r="A65" s="1">
-        <v>63</v>
+      <c r="A65" s="2">
+        <v>45081</v>
       </c>
       <c r="B65">
-        <v>1.088600707147722</v>
+        <v>1.030209979730855</v>
       </c>
       <c r="C65">
         <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:3">
-      <c r="A66" s="1">
-        <v>64</v>
+      <c r="A66" s="2">
+        <v>45086</v>
       </c>
       <c r="B66">
-        <v>1.229680425872824</v>
+        <v>1.34265105115265</v>
       </c>
       <c r="C66">
         <v>1</v>
       </c>
     </row>
     <row r="67" spans="1:3">
-      <c r="A67" s="1">
-        <v>65</v>
+      <c r="A67" s="2">
+        <v>45089</v>
       </c>
       <c r="B67">
-        <v>0.8870599823535759</v>
+        <v>1.125594341773872</v>
       </c>
       <c r="C67">
         <v>2</v>
       </c>
     </row>
     <row r="68" spans="1:3">
-      <c r="A68" s="1">
-        <v>66</v>
+      <c r="A68" s="2">
+        <v>45096</v>
       </c>
       <c r="B68">
-        <v>1.036438877967907</v>
+        <v>1.011020232150513</v>
       </c>
       <c r="C68">
         <v>1</v>
       </c>
     </row>
     <row r="69" spans="1:3">
-      <c r="A69" s="1">
-        <v>67</v>
+      <c r="A69" s="2">
+        <v>45100</v>
       </c>
       <c r="B69">
-        <v>1.235530503427728</v>
+        <v>1.161616837157476</v>
       </c>
       <c r="C69">
         <v>1</v>
       </c>
     </row>
     <row r="70" spans="1:3">
-      <c r="A70" s="1">
-        <v>68</v>
+      <c r="A70" s="2">
+        <v>45105</v>
       </c>
       <c r="B70">
-        <v>1.033243934895451</v>
+        <v>0.9443333868901522</v>
       </c>
       <c r="C70">
         <v>1</v>
       </c>
     </row>
     <row r="71" spans="1:3">
-      <c r="A71" s="1">
-        <v>69</v>
+      <c r="A71" s="2">
+        <v>45106</v>
       </c>
       <c r="B71">
-        <v>0.9892187334920522</v>
+        <v>0.9113487975736784</v>
       </c>
       <c r="C71">
         <v>1</v>
       </c>
     </row>
     <row r="72" spans="1:3">
-      <c r="A72" s="1">
-        <v>70</v>
+      <c r="A72" s="2">
+        <v>45114</v>
       </c>
       <c r="B72">
-        <v>1.087720160401148</v>
+        <v>1.023396472248848</v>
       </c>
       <c r="C72">
         <v>1</v>
       </c>
     </row>
     <row r="73" spans="1:3">
-      <c r="A73" s="1">
-        <v>71</v>
+      <c r="A73" s="2">
+        <v>45116</v>
       </c>
       <c r="B73">
-        <v>1.228799879126249</v>
+        <v>1.335837543670643</v>
       </c>
       <c r="C73">
         <v>1</v>
       </c>
     </row>
     <row r="74" spans="1:3">
-      <c r="A74" s="1">
-        <v>72</v>
+      <c r="A74" s="2">
+        <v>45117</v>
       </c>
       <c r="B74">
-        <v>0.8861794356070019</v>
+        <v>1.118780834291865</v>
       </c>
       <c r="C74">
         <v>1</v>
       </c>
     </row>
     <row r="75" spans="1:3">
-      <c r="A75" s="1">
-        <v>73</v>
+      <c r="A75" s="2">
+        <v>45122</v>
       </c>
       <c r="B75">
-        <v>1.035558331221333</v>
+        <v>1.004206724668506</v>
       </c>
       <c r="C75">
         <v>2</v>
       </c>
     </row>
     <row r="76" spans="1:3">
-      <c r="A76" s="1">
-        <v>74</v>
+      <c r="A76" s="2">
+        <v>45125</v>
       </c>
       <c r="B76">
-        <v>1.234649956681154</v>
+        <v>1.15480332967547</v>
       </c>
       <c r="C76">
         <v>1</v>
       </c>
     </row>
     <row r="77" spans="1:3">
-      <c r="A77" s="1">
-        <v>75</v>
+      <c r="A77" s="2">
+        <v>45129</v>
       </c>
       <c r="B77">
-        <v>1.032363388148877</v>
+        <v>0.9375198794081456</v>
       </c>
       <c r="C77">
         <v>2</v>
       </c>
     </row>
     <row r="78" spans="1:3">
-      <c r="A78" s="1">
-        <v>76</v>
+      <c r="A78" s="2">
+        <v>45130</v>
       </c>
       <c r="B78">
-        <v>0.988338186745478</v>
+        <v>0.904535290091672</v>
       </c>
       <c r="C78">
         <v>1</v>
       </c>
     </row>
     <row r="79" spans="1:3">
-      <c r="A79" s="1">
-        <v>77</v>
+      <c r="A79" s="2">
+        <v>45132</v>
       </c>
       <c r="B79">
-        <v>1.086839613654574</v>
+        <v>1.016582964766842</v>
       </c>
       <c r="C79">
         <v>1</v>
       </c>
     </row>
     <row r="80" spans="1:3">
-      <c r="A80" s="1">
-        <v>78</v>
+      <c r="A80" s="2">
+        <v>45136</v>
       </c>
       <c r="B80">
-        <v>1.227919332379675</v>
+        <v>1.329024036188637</v>
       </c>
       <c r="C80">
         <v>1</v>
       </c>
     </row>
     <row r="81" spans="1:3">
-      <c r="A81" s="1">
-        <v>79</v>
+      <c r="A81" s="2">
+        <v>45137</v>
       </c>
       <c r="B81">
-        <v>0.8852988888604276</v>
+        <v>1.111967326809859</v>
       </c>
       <c r="C81">
         <v>2</v>
       </c>
     </row>
     <row r="82" spans="1:3">
-      <c r="A82" s="1">
-        <v>80</v>
+      <c r="A82" s="2">
+        <v>45139</v>
       </c>
       <c r="B82">
-        <v>1.034677784474759</v>
+        <v>0.9973932171864996</v>
       </c>
       <c r="C82">
         <v>1</v>
       </c>
     </row>
     <row r="83" spans="1:3">
-      <c r="A83" s="1">
-        <v>81</v>
+      <c r="A83" s="2">
+        <v>45140</v>
       </c>
       <c r="B83">
-        <v>1.233769409934579</v>
+        <v>1.147989822193464</v>
       </c>
       <c r="C83">
         <v>1</v>
       </c>
     </row>
     <row r="84" spans="1:3">
-      <c r="A84" s="1">
-        <v>82</v>
+      <c r="A84" s="2">
+        <v>45142</v>
       </c>
       <c r="B84">
-        <v>1.031482841402303</v>
+        <v>0.9307063719261393</v>
       </c>
       <c r="C84">
         <v>1</v>
       </c>
     </row>
     <row r="85" spans="1:3">
-      <c r="A85" s="1">
-        <v>83</v>
+      <c r="A85" s="2">
+        <v>45143</v>
       </c>
       <c r="B85">
-        <v>0.9874576399989038</v>
+        <v>0.8977217826096654</v>
       </c>
       <c r="C85">
         <v>1</v>
       </c>
     </row>
     <row r="86" spans="1:3">
-      <c r="A86" s="1">
-        <v>84</v>
+      <c r="A86" s="2">
+        <v>45144</v>
       </c>
       <c r="B86">
-        <v>1.085959066908</v>
+        <v>1.009769457284835</v>
       </c>
       <c r="C86">
         <v>2</v>
       </c>
     </row>
     <row r="87" spans="1:3">
-      <c r="A87" s="1">
-        <v>85</v>
+      <c r="A87" s="2">
+        <v>45145</v>
       </c>
       <c r="B87">
-        <v>1.227038785633101</v>
+        <v>1.32221052870663</v>
       </c>
       <c r="C87">
         <v>1</v>
       </c>
     </row>
     <row r="88" spans="1:3">
-      <c r="A88" s="1">
-        <v>86</v>
+      <c r="A88" s="2">
+        <v>45146</v>
       </c>
       <c r="B88">
-        <v>0.8844183421138534</v>
+        <v>1.105153819327852</v>
       </c>
       <c r="C88">
         <v>1</v>
       </c>
     </row>
     <row r="89" spans="1:3">
-      <c r="A89" s="1">
-        <v>87</v>
+      <c r="A89" s="2">
+        <v>45149</v>
       </c>
       <c r="B89">
-        <v>1.033797237728185</v>
+        <v>0.9905797097044933</v>
       </c>
       <c r="C89">
         <v>1</v>
       </c>
     </row>
     <row r="90" spans="1:3">
-      <c r="A90" s="1">
-        <v>88</v>
+      <c r="A90" s="2">
+        <v>45150</v>
       </c>
       <c r="B90">
-        <v>1.232888863188005</v>
+        <v>1.141176314711457</v>
       </c>
       <c r="C90">
         <v>1</v>
       </c>
     </row>
     <row r="91" spans="1:3">
-      <c r="A91" s="1">
-        <v>89</v>
+      <c r="A91" s="2">
+        <v>45152</v>
       </c>
       <c r="B91">
-        <v>1.030602294655729</v>
+        <v>0.9238928644441329</v>
       </c>
       <c r="C91">
         <v>1</v>
       </c>
     </row>
     <row r="92" spans="1:3">
-      <c r="A92" s="1">
-        <v>90</v>
+      <c r="A92" s="2">
+        <v>45155</v>
       </c>
       <c r="B92">
-        <v>0.9865770932523298</v>
+        <v>0.890908275127659</v>
       </c>
       <c r="C92">
         <v>1</v>
       </c>
     </row>
     <row r="93" spans="1:3">
-      <c r="A93" s="1">
-        <v>91</v>
+      <c r="A93" s="2">
+        <v>45159</v>
       </c>
       <c r="B93">
-        <v>1.085078520161426</v>
+        <v>1.002955949802829</v>
       </c>
       <c r="C93">
         <v>2</v>
       </c>
     </row>
     <row r="94" spans="1:3">
-      <c r="A94" s="1">
-        <v>92</v>
+      <c r="A94" s="2">
+        <v>45165</v>
       </c>
       <c r="B94">
-        <v>1.226158238886527</v>
+        <v>1.315397021224624</v>
       </c>
       <c r="C94">
         <v>1</v>
       </c>
     </row>
     <row r="95" spans="1:3">
-      <c r="A95" s="1">
-        <v>93</v>
+      <c r="A95" s="2">
+        <v>45167</v>
       </c>
       <c r="B95">
-        <v>0.8835377953672794</v>
+        <v>1.098340311845846</v>
       </c>
       <c r="C95">
         <v>2</v>
       </c>
     </row>
     <row r="96" spans="1:3">
-      <c r="A96" s="1">
-        <v>94</v>
+      <c r="A96" s="2">
+        <v>45168</v>
       </c>
       <c r="B96">
-        <v>1.032916690981611</v>
+        <v>0.9837662022224869</v>
       </c>
       <c r="C96">
         <v>1</v>
       </c>
     </row>
     <row r="97" spans="1:3">
-      <c r="A97" s="1">
-        <v>95</v>
+      <c r="A97" s="2">
+        <v>45170</v>
       </c>
       <c r="B97">
-        <v>1.232008316441431</v>
+        <v>1.134362807229451</v>
       </c>
       <c r="C97">
         <v>1</v>
       </c>
     </row>
     <row r="98" spans="1:3">
-      <c r="A98" s="1">
-        <v>96</v>
+      <c r="A98" s="2">
+        <v>45173</v>
       </c>
       <c r="B98">
-        <v>1.029721747909155</v>
+        <v>0.9170793569621263</v>
       </c>
       <c r="C98">
         <v>1</v>
       </c>
     </row>
     <row r="99" spans="1:3">
-      <c r="A99" s="1">
-        <v>97</v>
+      <c r="A99" s="2">
+        <v>45174</v>
       </c>
       <c r="B99">
-        <v>0.9856965465057556</v>
+        <v>0.8840947676456526</v>
       </c>
       <c r="C99">
         <v>1</v>
       </c>
     </row>
     <row r="100" spans="1:3">
-      <c r="A100" s="1">
-        <v>98</v>
+      <c r="A100" s="2">
+        <v>45177</v>
       </c>
       <c r="B100">
-        <v>1.084197973414851</v>
+        <v>0.9961424423208225</v>
       </c>
       <c r="C100">
         <v>1</v>
       </c>
     </row>
     <row r="101" spans="1:3">
-      <c r="A101" s="1">
-        <v>99</v>
+      <c r="A101" s="2">
+        <v>45182</v>
       </c>
       <c r="B101">
-        <v>1.225277692139953</v>
+        <v>1.308583513742617</v>
       </c>
       <c r="C101">
         <v>2</v>
       </c>
     </row>
     <row r="102" spans="1:3">
-      <c r="A102" s="1">
-        <v>100</v>
+      <c r="A102" s="2">
+        <v>45189</v>
       </c>
       <c r="B102">
-        <v>0.8826572486207052</v>
+        <v>1.091526804363839</v>
       </c>
       <c r="C102">
         <v>1</v>
       </c>
     </row>
     <row r="103" spans="1:3">
-      <c r="A103" s="1">
-        <v>101</v>
+      <c r="A103" s="2">
+        <v>45190</v>
       </c>
       <c r="B103">
-        <v>1.032036144235037</v>
+        <v>0.9769526947404803</v>
       </c>
       <c r="C103">
         <v>2</v>
       </c>
     </row>
     <row r="104" spans="1:3">
-      <c r="A104" s="1">
-        <v>102</v>
+      <c r="A104" s="2">
+        <v>45192</v>
       </c>
       <c r="B104">
-        <v>1.231127769694857</v>
+        <v>1.127549299747444</v>
       </c>
       <c r="C104">
         <v>1</v>
       </c>
     </row>
     <row r="105" spans="1:3">
-      <c r="A105" s="1">
-        <v>103</v>
+      <c r="A105" s="2">
+        <v>45195</v>
       </c>
       <c r="B105">
-        <v>1.02884120116258</v>
+        <v>0.9102658494801199</v>
       </c>
       <c r="C105">
         <v>2</v>
       </c>
     </row>
     <row r="106" spans="1:3">
-      <c r="A106" s="1">
-        <v>104</v>
+      <c r="A106" s="2">
+        <v>45196</v>
       </c>
       <c r="B106">
-        <v>0.9848159997591815</v>
+        <v>0.877281260163646</v>
       </c>
       <c r="C106">
         <v>2</v>
       </c>
     </row>
     <row r="107" spans="1:3">
-      <c r="A107" s="1">
-        <v>105</v>
+      <c r="A107" s="2">
+        <v>45198</v>
       </c>
       <c r="B107">
-        <v>1.083317426668277</v>
+        <v>0.9893289348388161</v>
       </c>
       <c r="C107">
         <v>1</v>
       </c>
     </row>
     <row r="108" spans="1:3">
-      <c r="A108" s="1">
-        <v>106</v>
+      <c r="A108" s="2">
+        <v>45202</v>
       </c>
       <c r="B108">
-        <v>1.224397145393379</v>
+        <v>1.301770006260611</v>
       </c>
       <c r="C108">
         <v>1</v>
       </c>
     </row>
     <row r="109" spans="1:3">
-      <c r="A109" s="1">
-        <v>107</v>
+      <c r="A109" s="2">
+        <v>45205</v>
       </c>
       <c r="B109">
-        <v>0.8817767018741312</v>
+        <v>1.084713296881833</v>
       </c>
       <c r="C109">
         <v>1</v>
       </c>
     </row>
     <row r="110" spans="1:3">
-      <c r="A110" s="1">
-        <v>108</v>
+      <c r="A110" s="2">
+        <v>45215</v>
       </c>
       <c r="B110">
-        <v>1.031155597488463</v>
+        <v>0.9701391872584739</v>
       </c>
       <c r="C110">
         <v>1</v>
       </c>
     </row>
     <row r="111" spans="1:3">
-      <c r="A111" s="1">
-        <v>109</v>
+      <c r="A111" s="2">
+        <v>45219</v>
       </c>
       <c r="B111">
-        <v>1.230247222948283</v>
+        <v>1.120735792265438</v>
       </c>
       <c r="C111">
         <v>2</v>
       </c>
     </row>
     <row r="112" spans="1:3">
-      <c r="A112" s="1">
-        <v>110</v>
+      <c r="A112" s="2">
+        <v>45220</v>
       </c>
       <c r="B112">
-        <v>1.027960654416006</v>
+        <v>0.9034523419981135</v>
       </c>
       <c r="C112">
         <v>2</v>
       </c>
     </row>
     <row r="113" spans="1:3">
-      <c r="A113" s="1">
-        <v>111</v>
+      <c r="A113" s="2">
+        <v>45221</v>
       </c>
       <c r="B113">
-        <v>0.9839354530126073</v>
+        <v>0.8704677526816397</v>
       </c>
       <c r="C113">
         <v>1</v>
       </c>
     </row>
     <row r="114" spans="1:3">
-      <c r="A114" s="1">
-        <v>112</v>
+      <c r="A114" s="2">
+        <v>45225</v>
       </c>
       <c r="B114">
-        <v>1.082436879921703</v>
+        <v>0.9825154273568095</v>
       </c>
       <c r="C114">
         <v>1</v>
       </c>
     </row>
     <row r="115" spans="1:3">
-      <c r="A115" s="1">
-        <v>113</v>
+      <c r="A115" s="2">
+        <v>45228</v>
       </c>
       <c r="B115">
-        <v>1.223516598646804</v>
+        <v>1.294956498778605</v>
       </c>
       <c r="C115">
         <v>2</v>
       </c>
     </row>
     <row r="116" spans="1:3">
-      <c r="A116" s="1">
-        <v>114</v>
+      <c r="A116" s="2">
+        <v>45229</v>
       </c>
       <c r="B116">
-        <v>0.8808961551275569</v>
+        <v>1.077899789399826</v>
       </c>
       <c r="C116">
         <v>2</v>
       </c>
     </row>
     <row r="117" spans="1:3">
-      <c r="A117" s="1">
-        <v>115</v>
+      <c r="A117" s="2">
+        <v>45234</v>
       </c>
       <c r="B117">
-        <v>1.030275050741888</v>
+        <v>0.9633256797764673</v>
       </c>
       <c r="C117">
         <v>1</v>
       </c>
     </row>
     <row r="118" spans="1:3">
-      <c r="A118" s="1">
-        <v>116</v>
+      <c r="A118" s="2">
+        <v>45240</v>
       </c>
       <c r="B118">
-        <v>1.229366676201709</v>
+        <v>1.113922284783431</v>
       </c>
       <c r="C118">
         <v>2</v>
       </c>
     </row>
     <row r="119" spans="1:3">
-      <c r="A119" s="1">
-        <v>117</v>
+      <c r="A119" s="2">
+        <v>45241</v>
       </c>
       <c r="B119">
-        <v>1.027080107669432</v>
+        <v>0.8966388345161069</v>
       </c>
       <c r="C119">
         <v>1</v>
       </c>
     </row>
     <row r="120" spans="1:3">
-      <c r="A120" s="1">
-        <v>118</v>
+      <c r="A120" s="2">
+        <v>45242</v>
       </c>
       <c r="B120">
-        <v>0.9830549062660331</v>
+        <v>0.8636542451996331</v>
       </c>
       <c r="C120">
         <v>2</v>
       </c>
     </row>
     <row r="121" spans="1:3">
-      <c r="A121" s="1">
-        <v>119</v>
+      <c r="A121" s="2">
+        <v>45243</v>
       </c>
       <c r="B121">
-        <v>1.081556333175129</v>
+        <v>0.9757019198748031</v>
       </c>
       <c r="C121">
         <v>1</v>
       </c>
     </row>
     <row r="122" spans="1:3">
-      <c r="A122" s="1">
-        <v>120</v>
+      <c r="A122" s="2">
+        <v>45244</v>
       </c>
       <c r="B122">
-        <v>1.22263605190023</v>
+        <v>1.288142991296598</v>
       </c>
       <c r="C122">
         <v>1</v>
       </c>
     </row>
     <row r="123" spans="1:3">
-      <c r="A123" s="1">
-        <v>121</v>
+      <c r="A123" s="2">
+        <v>45245</v>
       </c>
       <c r="B123">
-        <v>0.8800156083809827</v>
+        <v>1.07108628191782</v>
       </c>
       <c r="C123">
         <v>1</v>
       </c>
     </row>
     <row r="124" spans="1:3">
-      <c r="A124" s="1">
-        <v>122</v>
+      <c r="A124" s="2">
+        <v>45246</v>
       </c>
       <c r="B124">
-        <v>1.029394503995314</v>
+        <v>0.9565121722944609</v>
       </c>
       <c r="C124">
         <v>1</v>
       </c>
     </row>
     <row r="125" spans="1:3">
-      <c r="A125" s="1">
-        <v>123</v>
+      <c r="A125" s="2">
+        <v>45249</v>
       </c>
       <c r="B125">
-        <v>1.228486129455135</v>
+        <v>1.107108777301425</v>
       </c>
       <c r="C125">
         <v>1</v>
       </c>
     </row>
     <row r="126" spans="1:3">
-      <c r="A126" s="1">
-        <v>124</v>
+      <c r="A126" s="2">
+        <v>45251</v>
       </c>
       <c r="B126">
-        <v>1.026199560922858</v>
+        <v>0.8898253270341006</v>
       </c>
       <c r="C126">
         <v>1</v>
       </c>
     </row>
     <row r="127" spans="1:3">
-      <c r="A127" s="1">
-        <v>125</v>
+      <c r="A127" s="2">
+        <v>45255</v>
       </c>
       <c r="B127">
-        <v>0.9821743595194591</v>
+        <v>0.8568407377176267</v>
       </c>
       <c r="C127">
         <v>1</v>
       </c>
     </row>
     <row r="128" spans="1:3">
-      <c r="A128" s="1">
-        <v>126</v>
+      <c r="A128" s="2">
+        <v>45258</v>
       </c>
       <c r="B128">
-        <v>1.080675786428555</v>
+        <v>0.9688884123927968</v>
       </c>
       <c r="C128">
         <v>2</v>
       </c>
     </row>
     <row r="129" spans="1:3">
-      <c r="A129" s="1">
-        <v>127</v>
+      <c r="A129" s="2">
+        <v>45259</v>
       </c>
       <c r="B129">
-        <v>1.221755505153656</v>
+        <v>1.281329483814592</v>
       </c>
       <c r="C129">
         <v>2</v>
       </c>
     </row>
     <row r="130" spans="1:3">
-      <c r="A130" s="1">
-        <v>128</v>
+      <c r="A130" s="2">
+        <v>45261</v>
       </c>
       <c r="B130">
-        <v>0.8791350616344087</v>
+        <v>1.064272774435813</v>
       </c>
       <c r="C130">
         <v>1</v>
       </c>
     </row>
     <row r="131" spans="1:3">
-      <c r="A131" s="1">
-        <v>129</v>
+      <c r="A131" s="2">
+        <v>45262</v>
       </c>
       <c r="B131">
-        <v>1.02851395724874</v>
+        <v>0.9496986648124546</v>
       </c>
       <c r="C131">
         <v>2</v>
       </c>
     </row>
     <row r="132" spans="1:3">
-      <c r="A132" s="1">
-        <v>130</v>
+      <c r="A132" s="2">
+        <v>45264</v>
       </c>
       <c r="B132">
-        <v>1.22760558270856</v>
+        <v>1.100295269819418</v>
       </c>
       <c r="C132">
         <v>1</v>
       </c>
     </row>
     <row r="133" spans="1:3">
-      <c r="A133" s="1">
-        <v>131</v>
+      <c r="A133" s="2">
+        <v>45266</v>
       </c>
       <c r="B133">
-        <v>1.025319014176284</v>
+        <v>0.883011819552094</v>
       </c>
       <c r="C133">
         <v>1</v>
       </c>
     </row>
     <row r="134" spans="1:3">
-      <c r="A134" s="1">
-        <v>132</v>
+      <c r="A134" s="2">
+        <v>45269</v>
       </c>
       <c r="B134">
-        <v>0.9812938127728849</v>
+        <v>0.8500272302356203</v>
       </c>
       <c r="C134">
         <v>2</v>
       </c>
     </row>
     <row r="135" spans="1:3">
-      <c r="A135" s="1">
-        <v>133</v>
+      <c r="A135" s="2">
+        <v>45272</v>
       </c>
       <c r="B135">
-        <v>1.079795239681981</v>
+        <v>0.9620749049107902</v>
       </c>
       <c r="C135">
         <v>1</v>
       </c>
     </row>
     <row r="136" spans="1:3">
-      <c r="A136" s="1">
-        <v>134</v>
+      <c r="A136" s="2">
+        <v>45276</v>
       </c>
       <c r="B136">
-        <v>1.220874958407082</v>
+        <v>1.274515976332585</v>
       </c>
       <c r="C136">
         <v>1</v>
       </c>
     </row>
     <row r="137" spans="1:3">
-      <c r="A137" s="1">
-        <v>135</v>
+      <c r="A137" s="2">
+        <v>45277</v>
       </c>
       <c r="B137">
-        <v>0.8782545148878345</v>
+        <v>1.057459266953807</v>
       </c>
       <c r="C137">
         <v>2</v>
       </c>
     </row>
     <row r="138" spans="1:3">
-      <c r="A138" s="1">
-        <v>136</v>
+      <c r="A138" s="2">
+        <v>45279</v>
       </c>
       <c r="B138">
-        <v>1.027633410502166</v>
+        <v>0.942885157330448</v>
       </c>
       <c r="C138">
         <v>1</v>
       </c>
     </row>
     <row r="139" spans="1:3">
-      <c r="A139" s="1">
-        <v>137</v>
+      <c r="A139" s="2">
+        <v>45283</v>
       </c>
       <c r="B139">
-        <v>1.226725035961986</v>
+        <v>1.093481762337412</v>
       </c>
       <c r="C139">
         <v>1</v>
       </c>
     </row>
     <row r="140" spans="1:3">
-      <c r="A140" s="1">
-        <v>138</v>
+      <c r="A140" s="2">
+        <v>45284</v>
       </c>
       <c r="B140">
-        <v>1.02443846742971</v>
+        <v>0.8761983120700876</v>
       </c>
       <c r="C140">
         <v>1</v>
       </c>
     </row>
     <row r="141" spans="1:3">
-      <c r="A141" s="1">
-        <v>139</v>
+      <c r="A141" s="2">
+        <v>45286</v>
       </c>
       <c r="B141">
-        <v>0.9804132660263108</v>
+        <v>0.8432137227536137</v>
       </c>
       <c r="C141">
         <v>1</v>
       </c>
     </row>
     <row r="142" spans="1:3">
-      <c r="A142" s="1">
-        <v>140</v>
+      <c r="A142" s="2">
+        <v>45287</v>
       </c>
       <c r="B142">
-        <v>1.078914692935407</v>
+        <v>0.9552613974287838</v>
       </c>
       <c r="C142">
         <v>1</v>
       </c>
     </row>
     <row r="143" spans="1:3">
-      <c r="A143" s="1">
-        <v>141</v>
+      <c r="A143" s="2">
+        <v>45288</v>
       </c>
       <c r="B143">
-        <v>1.219994411660508</v>
+        <v>1.267702468850579</v>
       </c>
       <c r="C143">
         <v>1</v>
       </c>
     </row>
     <row r="144" spans="1:3">
-      <c r="A144" s="1">
-        <v>142</v>
+      <c r="A144" s="2">
+        <v>45289</v>
       </c>
       <c r="B144">
-        <v>0.8773739681412602</v>
+        <v>1.050645759471801</v>
       </c>
       <c r="C144">
         <v>1</v>
       </c>
     </row>
     <row r="145" spans="1:3">
-      <c r="A145" s="1">
-        <v>143</v>
+      <c r="A145" s="2">
+        <v>45291</v>
       </c>
       <c r="B145">
-        <v>1.026752863755592</v>
+        <v>0.9360716498484416</v>
       </c>
       <c r="C145">
         <v>1</v>
       </c>
     </row>
     <row r="146" spans="1:3">
-      <c r="A146" s="1">
-        <v>144</v>
+      <c r="A146" s="2">
+        <v>45296</v>
       </c>
       <c r="B146">
-        <v>1.225844489215412</v>
+        <v>1.086668254855405</v>
       </c>
       <c r="C146">
         <v>1</v>
       </c>
     </row>
     <row r="147" spans="1:3">
-      <c r="A147" s="1">
-        <v>145</v>
+      <c r="A147" s="2">
+        <v>45297</v>
       </c>
       <c r="B147">
-        <v>1.023557920683136</v>
+        <v>0.8693848045880812</v>
       </c>
       <c r="C147">
         <v>1</v>
       </c>
     </row>
     <row r="148" spans="1:3">
-      <c r="A148" s="1">
-        <v>146</v>
+      <c r="A148" s="2">
+        <v>45298</v>
       </c>
       <c r="B148">
-        <v>0.9795327192797366</v>
+        <v>0.8364002152716074</v>
       </c>
       <c r="C148">
         <v>1</v>
       </c>
     </row>
     <row r="149" spans="1:3">
-      <c r="A149" s="1">
-        <v>147</v>
+      <c r="A149" s="2">
+        <v>45300</v>
       </c>
       <c r="B149">
-        <v>1.078034146188832</v>
+        <v>0.9484478899467772</v>
       </c>
       <c r="C149">
         <v>1</v>
       </c>
     </row>
     <row r="150" spans="1:3">
-      <c r="A150" s="1">
-        <v>148</v>
+      <c r="A150" s="2">
+        <v>45304</v>
       </c>
       <c r="B150">
-        <v>1.219113864913934</v>
+        <v>1.260888961368572</v>
       </c>
       <c r="C150">
         <v>1</v>
       </c>
     </row>
     <row r="151" spans="1:3">
-      <c r="A151" s="1">
-        <v>149</v>
+      <c r="A151" s="2">
+        <v>45307</v>
       </c>
       <c r="B151">
-        <v>0.8764934213946862</v>
+        <v>1.043832251989794</v>
       </c>
       <c r="C151">
         <v>1</v>
       </c>
     </row>
     <row r="152" spans="1:3">
-      <c r="A152" s="1">
-        <v>150</v>
+      <c r="A152" s="2">
+        <v>45309</v>
       </c>
       <c r="B152">
-        <v>1.025872317009018</v>
+        <v>0.929258142366435</v>
       </c>
       <c r="C152">
         <v>1</v>
       </c>
     </row>
     <row r="153" spans="1:3">
-      <c r="A153" s="1">
-        <v>151</v>
+      <c r="A153" s="2">
+        <v>45311</v>
       </c>
       <c r="B153">
-        <v>1.224963942468838</v>
+        <v>1.079854747373399</v>
       </c>
       <c r="C153">
         <v>1</v>
       </c>
     </row>
     <row r="154" spans="1:3">
-      <c r="A154" s="1">
-        <v>152</v>
+      <c r="A154" s="2">
+        <v>45319</v>
       </c>
       <c r="B154">
-        <v>1.022677373936562</v>
+        <v>0.8625712971060746</v>
       </c>
       <c r="C154">
         <v>2</v>
       </c>
     </row>
     <row r="155" spans="1:3">
-      <c r="A155" s="1">
-        <v>153</v>
+      <c r="A155" s="2">
+        <v>45320</v>
       </c>
       <c r="B155">
-        <v>0.9786521725331624</v>
+        <v>0.829586707789601</v>
       </c>
       <c r="C155">
         <v>1</v>
       </c>
     </row>
     <row r="156" spans="1:3">
-      <c r="A156" s="1">
-        <v>154</v>
+      <c r="A156" s="2">
+        <v>45321</v>
       </c>
       <c r="B156">
-        <v>1.077153599442258</v>
+        <v>0.9416343824647708</v>
       </c>
       <c r="C156">
         <v>2</v>
       </c>
     </row>
     <row r="157" spans="1:3">
-      <c r="A157" s="1">
-        <v>155</v>
+      <c r="A157" s="2">
+        <v>45322</v>
       </c>
       <c r="B157">
-        <v>1.21823331816736</v>
+        <v>1.254075453886566</v>
       </c>
       <c r="C157">
         <v>1</v>
       </c>
     </row>
     <row r="158" spans="1:3">
-      <c r="A158" s="1">
-        <v>156</v>
+      <c r="A158" s="2">
+        <v>45326</v>
       </c>
       <c r="B158">
-        <v>0.875612874648112</v>
+        <v>1.037018744507788</v>
       </c>
       <c r="C158">
         <v>1</v>
       </c>
     </row>
     <row r="159" spans="1:3">
-      <c r="A159" s="1">
-        <v>157</v>
+      <c r="A159" s="2">
+        <v>45327</v>
       </c>
       <c r="B159">
-        <v>1.024991770262444</v>
+        <v>0.9224446348844286</v>
       </c>
       <c r="C159">
         <v>1</v>
       </c>
     </row>
     <row r="160" spans="1:3">
-      <c r="A160" s="1">
-        <v>158</v>
+      <c r="A160" s="2">
+        <v>45329</v>
       </c>
       <c r="B160">
-        <v>1.224083395722264</v>
+        <v>1.073041239891393</v>
       </c>
       <c r="C160">
         <v>2</v>
       </c>
     </row>
     <row r="161" spans="1:3">
-      <c r="A161" s="1">
-        <v>159</v>
+      <c r="A161" s="2">
+        <v>45330</v>
       </c>
       <c r="B161">
-        <v>1.021796827189987</v>
+        <v>0.8557577896240682</v>
       </c>
       <c r="C161">
         <v>2</v>
       </c>
     </row>
     <row r="162" spans="1:3">
-      <c r="A162" s="1">
-        <v>160</v>
+      <c r="A162" s="2">
+        <v>45331</v>
       </c>
       <c r="B162">
-        <v>0.9777716257865884</v>
+        <v>0.8227732003075944</v>
       </c>
       <c r="C162">
         <v>2</v>
       </c>
     </row>
     <row r="163" spans="1:3">
-      <c r="A163" s="1">
-        <v>161</v>
+      <c r="A163" s="2">
+        <v>45332</v>
       </c>
       <c r="B163">
-        <v>1.076273052695684</v>
+        <v>0.9348208749827644</v>
       </c>
       <c r="C163">
         <v>1</v>
       </c>
     </row>
     <row r="164" spans="1:3">
-      <c r="A164" s="1">
-        <v>162</v>
+      <c r="A164" s="2">
+        <v>45333</v>
       </c>
       <c r="B164">
-        <v>1.217352771420785</v>
+        <v>1.247261946404559</v>
       </c>
       <c r="C164">
         <v>1</v>
       </c>
     </row>
     <row r="165" spans="1:3">
-      <c r="A165" s="1">
-        <v>163</v>
+      <c r="A165" s="2">
+        <v>45340</v>
       </c>
       <c r="B165">
-        <v>0.8747323279015378</v>
+        <v>1.030205237025781</v>
       </c>
       <c r="C165">
         <v>1</v>
       </c>
     </row>
     <row r="166" spans="1:3">
-      <c r="A166" s="1">
-        <v>164</v>
+      <c r="A166" s="2">
+        <v>45342</v>
       </c>
       <c r="B166">
-        <v>1.024111223515869</v>
+        <v>0.9156311274024223</v>
       </c>
       <c r="C166">
         <v>2</v>
       </c>
     </row>
     <row r="167" spans="1:3">
-      <c r="A167" s="1">
-        <v>165</v>
+      <c r="A167" s="2">
+        <v>45344</v>
       </c>
       <c r="B167">
-        <v>1.22320284897569</v>
+        <v>1.066227732409386</v>
       </c>
       <c r="C167">
         <v>1</v>
       </c>
     </row>
     <row r="168" spans="1:3">
-      <c r="A168" s="1">
-        <v>166</v>
+      <c r="A168" s="2">
+        <v>45345</v>
       </c>
       <c r="B168">
-        <v>1.020916280443413</v>
+        <v>0.8489442821420616</v>
       </c>
       <c r="C168">
         <v>1</v>
